--- a/Data/Final_Output/Stats_Defending_Final.xlsx
+++ b/Data/Final_Output/Stats_Defending_Final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Detailed Stats Category</t>
   </si>
   <si>
-    <t>redbull njr</t>
+    <t>HOME</t>
   </si>
   <si>
     <t>Alexander Hleb</t>
@@ -63,15 +63,15 @@
     <t>assists</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>ST</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>CAM</t>
   </si>
   <si>
@@ -99,34 +99,34 @@
     <t>Hleb</t>
   </si>
   <si>
-    <t>B. Charlton</t>
-  </si>
-  <si>
-    <t>N. Ono</t>
-  </si>
-  <si>
-    <t>A. Banks</t>
-  </si>
-  <si>
-    <t>O. Gillet</t>
-  </si>
-  <si>
-    <t>C. Bernard</t>
-  </si>
-  <si>
-    <t>s. karl</t>
-  </si>
-  <si>
-    <t>I. Lanzini</t>
-  </si>
-  <si>
-    <t>P. Hansen</t>
-  </si>
-  <si>
-    <t>S. Ribeiro</t>
-  </si>
-  <si>
-    <t>M. Lund</t>
+    <t>Z. Shen</t>
+  </si>
+  <si>
+    <t>A. Ji</t>
+  </si>
+  <si>
+    <t>E. Chang</t>
+  </si>
+  <si>
+    <t>T. Morel</t>
+  </si>
+  <si>
+    <t>K. Kowalczyk</t>
+  </si>
+  <si>
+    <t>E. Monteiro</t>
+  </si>
+  <si>
+    <t>C. Hassan</t>
+  </si>
+  <si>
+    <t>O. John</t>
+  </si>
+  <si>
+    <t>Y. Clerc</t>
+  </si>
+  <si>
+    <t>J. Al Shahrani</t>
   </si>
   <si>
     <t>Stat</t>
@@ -198,6 +198,12 @@
     <t>Beaten In Box</t>
   </si>
   <si>
+    <t>Defending Rating</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Fouls Committed</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
   </si>
   <si>
     <t>Own Goals</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -597,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -671,13 +680,13 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -688,10 +697,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -708,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -722,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -756,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -773,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -790,7 +799,7 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -807,7 +816,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -824,7 +833,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -840,7 +849,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -859,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -867,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -875,7 +884,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -883,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -907,7 +916,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -939,7 +948,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -955,7 +964,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -963,7 +972,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -971,7 +980,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -979,7 +988,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -987,7 +996,7 @@
         <v>54</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -995,7 +1004,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1003,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1011,7 +1020,7 @@
         <v>57</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1035,15 +1044,15 @@
         <v>60</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1051,6 +1060,22 @@
         <v>62</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
         <v>0</v>
       </c>
     </row>
